--- a/Doc/데이터Xml_170619_장비3단위로변경.xlsx
+++ b/Doc/데이터Xml_170619_장비3단위로변경.xlsx
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="802">
   <si>
     <t>hero</t>
   </si>
@@ -1964,6 +1964,1019 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>차후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스타트스테이지이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챕터?테마?구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정드랍아이템ID리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터셋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>E13</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스몬스터주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50층 테스트맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elementals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+G2/200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열1</t>
+  </si>
+  <si>
+    <t>basedamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseprice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baselevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillprefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나누기3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나누기10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검연마10</t>
+  </si>
+  <si>
+    <t>R01-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R01-2</t>
+  </si>
+  <si>
+    <t>R01-3</t>
+  </si>
+  <si>
+    <t>R01-4</t>
+  </si>
+  <si>
+    <t>R01-5</t>
+  </si>
+  <si>
+    <t>R01-6</t>
+  </si>
+  <si>
+    <t>R02-2</t>
+  </si>
+  <si>
+    <t>R02-3</t>
+  </si>
+  <si>
+    <t>R02-4</t>
+  </si>
+  <si>
+    <t>R02-5</t>
+  </si>
+  <si>
+    <t>R02-6</t>
+  </si>
+  <si>
+    <t>hero01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero03</t>
+  </si>
+  <si>
+    <t>hero04</t>
+  </si>
+  <si>
+    <t>hero05</t>
+  </si>
+  <si>
+    <t>hero06</t>
+  </si>
+  <si>
+    <t>hero07</t>
+  </si>
+  <si>
+    <t>hero08</t>
+  </si>
+  <si>
+    <t>hero09</t>
+  </si>
+  <si>
+    <t>hero10</t>
+  </si>
+  <si>
+    <t>fireball01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireball02</t>
+  </si>
+  <si>
+    <t>fireball03</t>
+  </si>
+  <si>
+    <t>fireball04</t>
+  </si>
+  <si>
+    <t>iceblock01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceblock02</t>
+  </si>
+  <si>
+    <t>iceblock03</t>
+  </si>
+  <si>
+    <t>iceblock04</t>
+  </si>
+  <si>
+    <t>fireball05</t>
+  </si>
+  <si>
+    <t>fireball06</t>
+  </si>
+  <si>
+    <t>fireball07</t>
+  </si>
+  <si>
+    <t>fireball08</t>
+  </si>
+  <si>
+    <t>fireball09</t>
+  </si>
+  <si>
+    <t>rock01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rock02</t>
+  </si>
+  <si>
+    <t>iceblock05</t>
+  </si>
+  <si>
+    <t>iceblock06</t>
+  </si>
+  <si>
+    <t>iceblock07</t>
+  </si>
+  <si>
+    <t>iceblock08</t>
+  </si>
+  <si>
+    <t>iceblock09</t>
+  </si>
+  <si>
+    <t>rock03</t>
+  </si>
+  <si>
+    <t>rock04</t>
+  </si>
+  <si>
+    <t>rock05</t>
+  </si>
+  <si>
+    <t>rock06</t>
+  </si>
+  <si>
+    <t>rock07</t>
+  </si>
+  <si>
+    <t>rock08</t>
+  </si>
+  <si>
+    <t>electricball01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricball02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricball03</t>
+  </si>
+  <si>
+    <t>electricball04</t>
+  </si>
+  <si>
+    <t>electricball05</t>
+  </si>
+  <si>
+    <t>electricball06</t>
+  </si>
+  <si>
+    <t>electricball07</t>
+  </si>
+  <si>
+    <t>전기연마6</t>
+  </si>
+  <si>
+    <t>전기연마7</t>
+  </si>
+  <si>
+    <t>바위연마3</t>
+  </si>
+  <si>
+    <t>바위연마4</t>
+  </si>
+  <si>
+    <t>얼음연마3</t>
+  </si>
+  <si>
+    <t>얼음연마4</t>
+  </si>
+  <si>
+    <t>얼음연마5</t>
+  </si>
+  <si>
+    <t>얼음연마9</t>
+  </si>
+  <si>
+    <t>불연마3</t>
+  </si>
+  <si>
+    <t>불연마4</t>
+  </si>
+  <si>
+    <t>불연마5</t>
+  </si>
+  <si>
+    <t>불연마6</t>
+  </si>
+  <si>
+    <t>불연마7</t>
+  </si>
+  <si>
+    <t>검연마3</t>
+  </si>
+  <si>
+    <t>검연마4</t>
+  </si>
+  <si>
+    <t>검연마5</t>
+  </si>
+  <si>
+    <t>검연마6</t>
+  </si>
+  <si>
+    <t>물연마3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물연마4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterball01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterball02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterball03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterball04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대지연마1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대지연마2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>earthball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>earthball01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>earthball02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간왜곡5</t>
+  </si>
+  <si>
+    <t>시간왜곡6</t>
+  </si>
+  <si>
+    <t>시간왜곡7</t>
+  </si>
+  <si>
+    <t>시간왜곡8</t>
+  </si>
+  <si>
+    <t>requireid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icontext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POTPercent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00-2</t>
+  </si>
+  <si>
+    <t>R00-3</t>
+  </si>
+  <si>
+    <t>R00-4</t>
+  </si>
+  <si>
+    <t>R00-5</t>
+  </si>
+  <si>
+    <t>R00-6</t>
+  </si>
+  <si>
+    <t>R02-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E14</t>
+  </si>
+  <si>
+    <t>E15</t>
+  </si>
+  <si>
+    <t>E16</t>
+  </si>
+  <si>
+    <t>Order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strvalue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooltime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stackperchest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>droplevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>absrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>density</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxLevel</t>
+  </si>
+  <si>
+    <t>BaseLevelPerLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JobBonusTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JobBonusAttribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JobBonusValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LvBonusTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LvBonusAttribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LvBonusValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선구자</t>
+  </si>
+  <si>
+    <t>모험가</t>
+  </si>
+  <si>
+    <t>귀족/상인</t>
+  </si>
+  <si>
+    <t>헌터</t>
+  </si>
+  <si>
+    <t>검사</t>
+  </si>
+  <si>
+    <t>불마법사</t>
+  </si>
+  <si>
+    <t>얼음마법사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바위마법사</t>
+  </si>
+  <si>
+    <t>전기마법사</t>
+  </si>
+  <si>
+    <t>물마법사</t>
+  </si>
+  <si>
+    <t>대지마법사</t>
+  </si>
+  <si>
+    <t>바람마법사</t>
+  </si>
+  <si>
+    <t>눈마법사</t>
+  </si>
+  <si>
+    <t>용암마법사</t>
+  </si>
+  <si>
+    <t>StartBaseLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T04</t>
+  </si>
+  <si>
+    <t>T05</t>
+  </si>
+  <si>
+    <t>T06</t>
+  </si>
+  <si>
+    <t>T07</t>
+  </si>
+  <si>
+    <t>T08</t>
+  </si>
+  <si>
+    <t>T09</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>T14</t>
+  </si>
+  <si>
+    <t>T15</t>
+  </si>
+  <si>
+    <t>util</t>
+  </si>
+  <si>
+    <t>util</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxResearchThread</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>ReputationXH</t>
+  </si>
+  <si>
+    <t>BonusEquipment</t>
+  </si>
+  <si>
+    <t>RankBonus</t>
+  </si>
+  <si>
+    <t>BonusLevel</t>
+  </si>
+  <si>
+    <t>hero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검연마11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검연마12</t>
+  </si>
+  <si>
+    <t>검연마13</t>
+  </si>
+  <si>
+    <t>검연마14</t>
+  </si>
+  <si>
+    <t>검연마15</t>
+  </si>
+  <si>
+    <t>검연마16</t>
+  </si>
+  <si>
+    <t>검연마17</t>
+  </si>
+  <si>
+    <t>검연마18</t>
+  </si>
+  <si>
+    <t>검연마19</t>
+  </si>
+  <si>
+    <t>검연마20</t>
+  </si>
+  <si>
+    <t>검연마21</t>
+  </si>
+  <si>
+    <t>검연마22</t>
+  </si>
+  <si>
+    <t>검연마23</t>
+  </si>
+  <si>
+    <t>검연마24</t>
+  </si>
+  <si>
+    <t>검연마25</t>
+  </si>
+  <si>
+    <t>showlevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirelevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level(계수결정레벨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stringvalue2</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>압축보스HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽝드랍레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConsumableX</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>global</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitExpCoef</t>
+  </si>
+  <si>
+    <t>E17</t>
+  </si>
+  <si>
+    <t>E18</t>
+  </si>
+  <si>
+    <t>E19</t>
+  </si>
+  <si>
+    <t>E20</t>
+  </si>
+  <si>
+    <t>더미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceblock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>155</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E21</t>
+  </si>
+  <si>
+    <t>E22</t>
+  </si>
+  <si>
+    <t>E23</t>
+  </si>
+  <si>
+    <t>E24</t>
+  </si>
+  <si>
+    <t>어택링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘레멘탈소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어택소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어택로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘레멘탈로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘레멘탈링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스톤소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스톤로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스톤링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이트닝소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이트닝로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이트닝링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워터소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워터로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워터링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어스소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어스로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어스링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E25</t>
+  </si>
+  <si>
+    <t>E26</t>
+  </si>
+  <si>
+    <t>E27</t>
+  </si>
+  <si>
+    <t>E28</t>
+  </si>
+  <si>
+    <t>E29</t>
+  </si>
+  <si>
+    <t>E30</t>
+  </si>
+  <si>
+    <t>E31</t>
+  </si>
+  <si>
+    <t>E32</t>
+  </si>
+  <si>
+    <t>E33</t>
+  </si>
+  <si>
+    <t>윈드소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윈드로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윈드링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윈터소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윈터로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윈터링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마그마소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마그마로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마그마링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50층돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100층돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150층돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200층돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250층돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300층돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3600</t>
+  </si>
+  <si>
+    <t>3600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Map01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1984,1037 +2997,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Map06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스타트스테이지이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배경이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>챕터?테마?구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고정드랍아이템ID리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터셋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>E13</t>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스몬스터주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50층 테스트맵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>elementals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1+G2/200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>열1</t>
-  </si>
-  <si>
-    <t>basedamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baseprice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baselevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillprefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나누기3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>절반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나누기10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검연마10</t>
-  </si>
-  <si>
-    <t>R01-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R01-2</t>
-  </si>
-  <si>
-    <t>R01-3</t>
-  </si>
-  <si>
-    <t>R01-4</t>
-  </si>
-  <si>
-    <t>R01-5</t>
-  </si>
-  <si>
-    <t>R01-6</t>
-  </si>
-  <si>
-    <t>R02-2</t>
-  </si>
-  <si>
-    <t>R02-3</t>
-  </si>
-  <si>
-    <t>R02-4</t>
-  </si>
-  <si>
-    <t>R02-5</t>
-  </si>
-  <si>
-    <t>R02-6</t>
-  </si>
-  <si>
-    <t>hero01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero03</t>
-  </si>
-  <si>
-    <t>hero04</t>
-  </si>
-  <si>
-    <t>hero05</t>
-  </si>
-  <si>
-    <t>hero06</t>
-  </si>
-  <si>
-    <t>hero07</t>
-  </si>
-  <si>
-    <t>hero08</t>
-  </si>
-  <si>
-    <t>hero09</t>
-  </si>
-  <si>
-    <t>hero10</t>
-  </si>
-  <si>
-    <t>fireball01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fireball02</t>
-  </si>
-  <si>
-    <t>fireball03</t>
-  </si>
-  <si>
-    <t>fireball04</t>
-  </si>
-  <si>
-    <t>iceblock01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iceblock02</t>
-  </si>
-  <si>
-    <t>iceblock03</t>
-  </si>
-  <si>
-    <t>iceblock04</t>
-  </si>
-  <si>
-    <t>fireball05</t>
-  </si>
-  <si>
-    <t>fireball06</t>
-  </si>
-  <si>
-    <t>fireball07</t>
-  </si>
-  <si>
-    <t>fireball08</t>
-  </si>
-  <si>
-    <t>fireball09</t>
-  </si>
-  <si>
-    <t>rock01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rock02</t>
-  </si>
-  <si>
-    <t>iceblock05</t>
-  </si>
-  <si>
-    <t>iceblock06</t>
-  </si>
-  <si>
-    <t>iceblock07</t>
-  </si>
-  <si>
-    <t>iceblock08</t>
-  </si>
-  <si>
-    <t>iceblock09</t>
-  </si>
-  <si>
-    <t>rock03</t>
-  </si>
-  <si>
-    <t>rock04</t>
-  </si>
-  <si>
-    <t>rock05</t>
-  </si>
-  <si>
-    <t>rock06</t>
-  </si>
-  <si>
-    <t>rock07</t>
-  </si>
-  <si>
-    <t>rock08</t>
-  </si>
-  <si>
-    <t>electricball01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>electricball02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>electricball03</t>
-  </si>
-  <si>
-    <t>electricball04</t>
-  </si>
-  <si>
-    <t>electricball05</t>
-  </si>
-  <si>
-    <t>electricball06</t>
-  </si>
-  <si>
-    <t>electricball07</t>
-  </si>
-  <si>
-    <t>전기연마6</t>
-  </si>
-  <si>
-    <t>전기연마7</t>
-  </si>
-  <si>
-    <t>바위연마3</t>
-  </si>
-  <si>
-    <t>바위연마4</t>
-  </si>
-  <si>
-    <t>얼음연마3</t>
-  </si>
-  <si>
-    <t>얼음연마4</t>
-  </si>
-  <si>
-    <t>얼음연마5</t>
-  </si>
-  <si>
-    <t>얼음연마9</t>
-  </si>
-  <si>
-    <t>불연마3</t>
-  </si>
-  <si>
-    <t>불연마4</t>
-  </si>
-  <si>
-    <t>불연마5</t>
-  </si>
-  <si>
-    <t>불연마6</t>
-  </si>
-  <si>
-    <t>불연마7</t>
-  </si>
-  <si>
-    <t>검연마3</t>
-  </si>
-  <si>
-    <t>검연마4</t>
-  </si>
-  <si>
-    <t>검연마5</t>
-  </si>
-  <si>
-    <t>검연마6</t>
-  </si>
-  <si>
-    <t>물연마3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물연마4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>waterball01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>waterball02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>waterball03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>waterball04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대지연마1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대지연마2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>earthball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>earthball01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>earthball02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간왜곡5</t>
-  </si>
-  <si>
-    <t>시간왜곡6</t>
-  </si>
-  <si>
-    <t>시간왜곡7</t>
-  </si>
-  <si>
-    <t>시간왜곡8</t>
-  </si>
-  <si>
-    <t>requireid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icontext</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POTPercent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baseTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00-2</t>
-  </si>
-  <si>
-    <t>R00-3</t>
-  </si>
-  <si>
-    <t>R00-4</t>
-  </si>
-  <si>
-    <t>R00-5</t>
-  </si>
-  <si>
-    <t>R00-6</t>
-  </si>
-  <si>
-    <t>R02-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E14</t>
-  </si>
-  <si>
-    <t>E15</t>
-  </si>
-  <si>
-    <t>E16</t>
-  </si>
-  <si>
-    <t>Order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strvalue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cooltime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stackperchest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>droplevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>absrate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>density</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디</t>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxLevel</t>
-  </si>
-  <si>
-    <t>BaseLevelPerLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JobBonusTarget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JobBonusAttribute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JobBonusValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LvBonusTarget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LvBonusAttribute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LvBonusValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선구자</t>
-  </si>
-  <si>
     <t>모험가</t>
-  </si>
-  <si>
-    <t>귀족/상인</t>
-  </si>
-  <si>
-    <t>헌터</t>
-  </si>
-  <si>
-    <t>검사</t>
-  </si>
-  <si>
-    <t>불마법사</t>
-  </si>
-  <si>
-    <t>일반인</t>
-  </si>
-  <si>
-    <t>얼음마법사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바위마법사</t>
-  </si>
-  <si>
-    <t>전기마법사</t>
-  </si>
-  <si>
-    <t>물마법사</t>
-  </si>
-  <si>
-    <t>대지마법사</t>
-  </si>
-  <si>
-    <t>바람마법사</t>
-  </si>
-  <si>
-    <t>눈마법사</t>
-  </si>
-  <si>
-    <t>용암마법사</t>
-  </si>
-  <si>
-    <t>StartBaseLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T03</t>
-  </si>
-  <si>
-    <t>T04</t>
-  </si>
-  <si>
-    <t>T05</t>
-  </si>
-  <si>
-    <t>T06</t>
-  </si>
-  <si>
-    <t>T07</t>
-  </si>
-  <si>
-    <t>T08</t>
-  </si>
-  <si>
-    <t>T09</t>
-  </si>
-  <si>
-    <t>T10</t>
-  </si>
-  <si>
-    <t>T11</t>
-  </si>
-  <si>
-    <t>T12</t>
-  </si>
-  <si>
-    <t>T13</t>
-  </si>
-  <si>
-    <t>T14</t>
-  </si>
-  <si>
-    <t>T15</t>
-  </si>
-  <si>
-    <t>util</t>
-  </si>
-  <si>
-    <t>util</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxResearchThread</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>ReputationXH</t>
-  </si>
-  <si>
-    <t>BonusEquipment</t>
-  </si>
-  <si>
-    <t>RankBonus</t>
-  </si>
-  <si>
-    <t>BonusLevel</t>
-  </si>
-  <si>
-    <t>hero</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검연마11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검연마12</t>
-  </si>
-  <si>
-    <t>검연마13</t>
-  </si>
-  <si>
-    <t>검연마14</t>
-  </si>
-  <si>
-    <t>검연마15</t>
-  </si>
-  <si>
-    <t>검연마16</t>
-  </si>
-  <si>
-    <t>검연마17</t>
-  </si>
-  <si>
-    <t>검연마18</t>
-  </si>
-  <si>
-    <t>검연마19</t>
-  </si>
-  <si>
-    <t>검연마20</t>
-  </si>
-  <si>
-    <t>검연마21</t>
-  </si>
-  <si>
-    <t>검연마22</t>
-  </si>
-  <si>
-    <t>검연마23</t>
-  </si>
-  <si>
-    <t>검연마24</t>
-  </si>
-  <si>
-    <t>검연마25</t>
-  </si>
-  <si>
-    <t>showlevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>requirelevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level(계수결정레벨)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stringvalue2</t>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>압축보스HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꽝드랍레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConsumableX</t>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>global</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InitExpCoef</t>
-  </si>
-  <si>
-    <t>E17</t>
-  </si>
-  <si>
-    <t>E18</t>
-  </si>
-  <si>
-    <t>E19</t>
-  </si>
-  <si>
-    <t>E20</t>
-  </si>
-  <si>
-    <t>더미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fireball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iceblock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>155</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ES00</t>
-  </si>
-  <si>
-    <t>E21</t>
-  </si>
-  <si>
-    <t>E22</t>
-  </si>
-  <si>
-    <t>E23</t>
-  </si>
-  <si>
-    <t>E24</t>
-  </si>
-  <si>
-    <t>어택링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘레멘탈소드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어택소드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어택로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘레멘탈로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘레멘탈링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이어소드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이어링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이스소드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이스로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이어로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이스링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스톤소드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스톤로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스톤링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라이트닝소드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라이트닝로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라이트닝링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>워터소드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>워터로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>워터링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어스소드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어스로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어스링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E25</t>
-  </si>
-  <si>
-    <t>E26</t>
-  </si>
-  <si>
-    <t>E27</t>
-  </si>
-  <si>
-    <t>E28</t>
-  </si>
-  <si>
-    <t>E29</t>
-  </si>
-  <si>
-    <t>E30</t>
-  </si>
-  <si>
-    <t>E31</t>
-  </si>
-  <si>
-    <t>E32</t>
-  </si>
-  <si>
-    <t>E33</t>
-  </si>
-  <si>
-    <t>윈드소드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윈드로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윈드링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윈터소드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윈터로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윈터링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마그마소드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마그마로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마그마링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50층돌파</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100층돌파</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150층돌파</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200층돌파</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>250층돌파</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300층돌파</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3600</t>
-  </si>
-  <si>
-    <t>3600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3503,7 +3502,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3925,6 +3924,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8215,7 +8220,7 @@
   <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8257,7 +8262,7 @@
         <v>388</v>
       </c>
       <c r="G1" s="69" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="H1" s="69" t="s">
         <v>495</v>
@@ -8275,7 +8280,7 @@
         <v>499</v>
       </c>
       <c r="M1" s="69" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="N1" s="69" t="s">
         <v>497</v>
@@ -8284,7 +8289,7 @@
         <v>500</v>
       </c>
       <c r="P1" s="117" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
@@ -8299,22 +8304,22 @@
       <c r="A2" s="73"/>
       <c r="B2" s="73"/>
       <c r="C2" s="73" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D2" s="139" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="E2" s="73" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="F2" s="74">
         <v>50</v>
       </c>
       <c r="G2" s="73" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="H2" s="139" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="I2" s="74">
         <v>1</v>
@@ -8326,7 +8331,7 @@
         <v>1000</v>
       </c>
       <c r="L2" s="73" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="M2" s="74">
         <v>29175</v>
@@ -8349,7 +8354,7 @@
         <v>10층돌파</v>
       </c>
       <c r="D3" s="139" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="E3" s="78">
         <v>10</v>
@@ -8358,10 +8363,10 @@
         <v>10</v>
       </c>
       <c r="G3" s="78" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="H3" s="138" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="I3" s="79">
         <v>1</v>
@@ -8373,7 +8378,7 @@
         <v>1000</v>
       </c>
       <c r="L3" s="78" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="M3" s="79">
         <v>29175</v>
@@ -8388,7 +8393,7 @@
         <v>10</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -8401,7 +8406,7 @@
         <v>20층돌파</v>
       </c>
       <c r="D4" s="139" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="E4" s="73">
         <v>20</v>
@@ -8410,10 +8415,10 @@
         <v>20</v>
       </c>
       <c r="G4" s="73" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="H4" s="139" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="I4" s="74">
         <v>1</v>
@@ -8425,7 +8430,7 @@
         <v>1000</v>
       </c>
       <c r="L4" s="73" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="M4" s="74">
         <v>29175</v>
@@ -8440,7 +8445,7 @@
         <v>10</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -8453,7 +8458,7 @@
         <v>30층돌파</v>
       </c>
       <c r="D5" s="139" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="E5" s="78">
         <v>30</v>
@@ -8462,10 +8467,10 @@
         <v>30</v>
       </c>
       <c r="G5" s="78" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="H5" s="138" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="I5" s="79">
         <v>1</v>
@@ -8477,7 +8482,7 @@
         <v>1000</v>
       </c>
       <c r="L5" s="78" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="M5" s="79">
         <v>29175</v>
@@ -8492,7 +8497,7 @@
         <v>10</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -8505,7 +8510,7 @@
         <v>40층돌파</v>
       </c>
       <c r="D6" s="139" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="E6" s="73">
         <v>40</v>
@@ -8514,10 +8519,10 @@
         <v>40</v>
       </c>
       <c r="G6" s="73" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="H6" s="139" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="I6" s="74">
         <v>1</v>
@@ -8529,7 +8534,7 @@
         <v>1000</v>
       </c>
       <c r="L6" s="73" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="M6" s="74">
         <v>29175</v>
@@ -8538,37 +8543,35 @@
         <v>1</v>
       </c>
       <c r="O6" s="73" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="P6" s="17">
         <v>10</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="78" t="s">
-        <v>501</v>
-      </c>
-      <c r="B7" s="78"/>
+      <c r="A7" s="141"/>
+      <c r="B7" s="141"/>
       <c r="C7" s="138" t="s">
+        <v>781</v>
+      </c>
+      <c r="D7" s="139" t="s">
         <v>790</v>
       </c>
-      <c r="D7" s="139" t="s">
-        <v>799</v>
-      </c>
       <c r="E7" s="138" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F7" s="138" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="G7" s="78" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="H7" s="138" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="I7" s="79">
         <v>1</v>
@@ -8580,7 +8583,7 @@
         <v>1000</v>
       </c>
       <c r="L7" s="78" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="M7" s="79">
         <v>29175</v>
@@ -8589,27 +8592,25 @@
         <v>1</v>
       </c>
       <c r="O7" s="78" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="P7" s="18">
         <v>10</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="73" t="s">
-        <v>502</v>
-      </c>
-      <c r="B8" s="73" t="s">
-        <v>501</v>
-      </c>
+      <c r="A8" s="49" t="s">
+        <v>792</v>
+      </c>
+      <c r="B8" s="49"/>
       <c r="C8" s="139" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="D8" s="139" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="E8" s="139" t="s">
         <v>354</v>
@@ -8618,10 +8619,10 @@
         <v>354</v>
       </c>
       <c r="G8" s="73" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="H8" s="139" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="I8" s="74">
         <v>1</v>
@@ -8633,7 +8634,7 @@
         <v>1000</v>
       </c>
       <c r="L8" s="73" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="M8" s="74">
         <v>29175</v>
@@ -8642,39 +8643,39 @@
         <v>1</v>
       </c>
       <c r="O8" s="73" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="P8" s="17">
         <v>10</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="78" t="s">
-        <v>503</v>
-      </c>
-      <c r="B9" s="78" t="s">
-        <v>502</v>
+      <c r="A9" s="49" t="s">
+        <v>793</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>792</v>
       </c>
       <c r="C9" s="138" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="D9" s="139" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="E9" s="138" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="F9" s="138" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="G9" s="78" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="H9" s="138" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="I9" s="79">
         <v>1</v>
@@ -8686,7 +8687,7 @@
         <v>1000</v>
       </c>
       <c r="L9" s="78" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="M9" s="79">
         <v>29175</v>
@@ -8695,36 +8696,36 @@
         <v>1</v>
       </c>
       <c r="O9" s="78" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="P9" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="73" t="s">
-        <v>504</v>
-      </c>
-      <c r="B10" s="73" t="s">
-        <v>503</v>
+      <c r="A10" s="49" t="s">
+        <v>794</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>793</v>
       </c>
       <c r="C10" s="139" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="D10" s="139" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="E10" s="139" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="F10" s="139" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="G10" s="73" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="H10" s="139" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="I10" s="74">
         <v>1</v>
@@ -8736,7 +8737,7 @@
         <v>1000</v>
       </c>
       <c r="L10" s="73" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="M10" s="74">
         <v>29175</v>
@@ -8745,36 +8746,36 @@
         <v>1</v>
       </c>
       <c r="O10" s="73" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="P10" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="78" t="s">
-        <v>505</v>
-      </c>
-      <c r="B11" s="78" t="s">
-        <v>504</v>
+      <c r="A11" s="49" t="s">
+        <v>795</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>794</v>
       </c>
       <c r="C11" s="138" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="D11" s="139" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="E11" s="138" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="F11" s="138" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="G11" s="78" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="H11" s="138" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="I11" s="79">
         <v>1</v>
@@ -8786,7 +8787,7 @@
         <v>1000</v>
       </c>
       <c r="L11" s="78" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="M11" s="79">
         <v>29175</v>
@@ -8795,36 +8796,36 @@
         <v>1</v>
       </c>
       <c r="O11" s="78" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="P11" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="82" t="s">
-        <v>506</v>
-      </c>
-      <c r="B12" s="82" t="s">
-        <v>505</v>
+      <c r="A12" s="141" t="s">
+        <v>796</v>
+      </c>
+      <c r="B12" s="141" t="s">
+        <v>795</v>
       </c>
       <c r="C12" s="140" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="D12" s="139" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="E12" s="140" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F12" s="140" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="G12" s="82" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="H12" s="140" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="I12" s="83">
         <v>1</v>
@@ -8836,7 +8837,7 @@
         <v>1000</v>
       </c>
       <c r="L12" s="82" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="M12" s="83">
         <v>29175</v>
@@ -8845,15 +8846,29 @@
         <v>1</v>
       </c>
       <c r="O12" s="82" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="P12" s="122">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="142"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="142"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="142"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="128"/>
     </row>
     <row r="23" spans="9:9">
       <c r="I23" s="11"/>
@@ -8923,46 +8938,46 @@
         <v>12</v>
       </c>
       <c r="B1" s="94" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C1" s="94" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="D1" s="102" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="E1" s="94" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="F1" s="94" t="s">
         <v>33</v>
       </c>
       <c r="G1" s="94" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="H1" s="94" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="I1" s="94" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="94" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="K1" s="94" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="L1" s="94" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="M1" s="94" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="N1" s="94" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="O1" s="97" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="17.25" thickTop="1">
@@ -10337,7 +10352,7 @@
       </c>
       <c r="L34" s="88"/>
       <c r="M34" s="101" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="N34" s="101" t="s">
         <v>272</v>
@@ -10372,7 +10387,7 @@
       </c>
       <c r="L35" s="90"/>
       <c r="M35" s="106" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="N35" s="106" t="s">
         <v>275</v>
@@ -10696,43 +10711,43 @@
         <v>12</v>
       </c>
       <c r="B1" s="72" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="C1" s="69" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="E1" s="69" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="G1" s="69" t="s">
         <v>33</v>
       </c>
       <c r="H1" s="69" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="I1" s="69" t="s">
         <v>34</v>
       </c>
       <c r="J1" s="69" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="K1" s="69" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="L1" s="69" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="M1" s="69" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="N1" s="69" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="O1" s="69" t="s">
         <v>1</v>
@@ -10747,18 +10762,18 @@
         <v>91</v>
       </c>
       <c r="S1" s="117" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17.25" thickTop="1">
       <c r="A2" s="18" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="B2" s="110" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="123" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="D2" s="79">
         <v>0</v>
@@ -10808,7 +10823,7 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="18" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="B3" s="111" t="s">
         <v>0</v>
@@ -10864,7 +10879,7 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="18" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="B4" s="110" t="s">
         <v>0</v>
@@ -10920,7 +10935,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="18" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="B5" s="111" t="s">
         <v>0</v>
@@ -10976,7 +10991,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="18" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="B6" s="110" t="s">
         <v>0</v>
@@ -10998,7 +11013,7 @@
         <v>85</v>
       </c>
       <c r="H6" s="78" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="I6" s="78" t="s">
         <v>35</v>
@@ -11032,7 +11047,7 @@
     </row>
     <row r="7" spans="1:19" s="11" customFormat="1">
       <c r="A7" s="18" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B7" s="111" t="s">
         <v>0</v>
@@ -11054,7 +11069,7 @@
         <v>85</v>
       </c>
       <c r="H7" s="73" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="I7" s="73" t="s">
         <v>35</v>
@@ -11108,7 +11123,7 @@
         <v>85</v>
       </c>
       <c r="H8" s="78" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="I8" s="78" t="s">
         <v>35</v>
@@ -11162,7 +11177,7 @@
         <v>85</v>
       </c>
       <c r="H9" s="73" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="I9" s="73" t="s">
         <v>35</v>
@@ -11196,7 +11211,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="17" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B10" s="111" t="s">
         <v>22</v>
@@ -11247,7 +11262,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="18" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B11" s="110" t="s">
         <v>16</v>
@@ -11298,7 +11313,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="17" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B12" s="111" t="s">
         <v>20</v>
@@ -11349,7 +11364,7 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="18" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B13" s="110" t="s">
         <v>8</v>
@@ -11400,7 +11415,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="17" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B14" s="111" t="s">
         <v>10</v>
@@ -11451,7 +11466,7 @@
     </row>
     <row r="15" spans="1:19" s="11" customFormat="1">
       <c r="A15" s="18" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B15" s="110" t="s">
         <v>7</v>
@@ -11649,7 +11664,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="18" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="B19" s="110" t="s">
         <v>6</v>
@@ -11700,7 +11715,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="18" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B20" s="111" t="s">
         <v>20</v>
@@ -11751,7 +11766,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="18" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B21" s="110" t="s">
         <v>8</v>
@@ -11802,7 +11817,7 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="18" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B22" s="111" t="s">
         <v>10</v>
@@ -11853,7 +11868,7 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="18" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B23" s="110" t="s">
         <v>7</v>
@@ -11904,7 +11919,7 @@
     </row>
     <row r="24" spans="1:19" s="11" customFormat="1">
       <c r="A24" s="18" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B24" s="111" t="s">
         <v>18</v>
@@ -12510,7 +12525,7 @@
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="17" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B36" s="111" t="s">
         <v>14</v>
@@ -12567,7 +12582,7 @@
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="18" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B37" s="110" t="s">
         <v>14</v>
@@ -12624,7 +12639,7 @@
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="17" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B38" s="111" t="s">
         <v>14</v>
@@ -12646,7 +12661,7 @@
         <v>83</v>
       </c>
       <c r="H38" s="73" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="I38" s="73" t="str">
         <f>CONCATENATE("검술의 피해량이 ",Research!$Q38,"배 증가합니다.")</f>
@@ -12681,7 +12696,7 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="18" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B39" s="110" t="s">
         <v>14</v>
@@ -12703,7 +12718,7 @@
         <v>83</v>
       </c>
       <c r="H39" s="78" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="I39" s="78" t="str">
         <f>CONCATENATE("검술의 피해량이 ",Research!$Q39,"배 증가합니다.")</f>
@@ -12738,7 +12753,7 @@
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="17" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B40" s="111" t="s">
         <v>14</v>
@@ -12760,7 +12775,7 @@
         <v>83</v>
       </c>
       <c r="H40" s="73" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="I40" s="73" t="str">
         <f>CONCATENATE("검술의 피해량이 ",Research!$Q40,"배 증가합니다.")</f>
@@ -12795,7 +12810,7 @@
     </row>
     <row r="41" spans="1:19" s="11" customFormat="1">
       <c r="A41" s="18" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B41" s="110" t="s">
         <v>4</v>
@@ -12817,7 +12832,7 @@
         <v>83</v>
       </c>
       <c r="H41" s="78" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="I41" s="78" t="str">
         <f>CONCATENATE("검술의 피해량이 ",Research!$Q41,"배 증가합니다.")</f>
@@ -12852,7 +12867,7 @@
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="17" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B42" s="111" t="s">
         <v>4</v>
@@ -12909,7 +12924,7 @@
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="18" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B43" s="110" t="s">
         <v>4</v>
@@ -12966,7 +12981,7 @@
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="17" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B44" s="111" t="s">
         <v>4</v>
@@ -13023,7 +13038,7 @@
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="18" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B45" s="110" t="s">
         <v>4</v>
@@ -13045,7 +13060,7 @@
         <v>83</v>
       </c>
       <c r="H45" s="78" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="I45" s="78" t="str">
         <f>CONCATENATE("검술의 피해량이 ",Research!$Q45,"배 증가합니다.")</f>
@@ -13100,7 +13115,7 @@
         <v>83</v>
       </c>
       <c r="H46" s="78" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="I46" s="78" t="str">
         <f>CONCATENATE("검술의 피해량이 ",Research!$Q46,"배 증가합니다.")</f>
@@ -13153,7 +13168,7 @@
         <v>83</v>
       </c>
       <c r="H47" s="78" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="I47" s="78" t="str">
         <f>CONCATENATE("검술의 피해량이 ",Research!$Q47,"배 증가합니다.")</f>
@@ -13206,7 +13221,7 @@
         <v>83</v>
       </c>
       <c r="H48" s="78" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="I48" s="78" t="str">
         <f>CONCATENATE("검술의 피해량이 ",Research!$Q48,"배 증가합니다.")</f>
@@ -13259,7 +13274,7 @@
         <v>83</v>
       </c>
       <c r="H49" s="78" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="I49" s="78" t="str">
         <f>CONCATENATE("검술의 피해량이 ",Research!$Q49,"배 증가합니다.")</f>
@@ -13312,7 +13327,7 @@
         <v>83</v>
       </c>
       <c r="H50" s="78" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="I50" s="78" t="str">
         <f>CONCATENATE("검술의 피해량이 ",Research!$Q50,"배 증가합니다.")</f>
@@ -13365,7 +13380,7 @@
         <v>83</v>
       </c>
       <c r="H51" s="78" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="I51" s="78" t="str">
         <f>CONCATENATE("검술의 피해량이 ",Research!$Q51,"배 증가합니다.")</f>
@@ -13418,7 +13433,7 @@
         <v>83</v>
       </c>
       <c r="H52" s="78" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="I52" s="78" t="str">
         <f>CONCATENATE("검술의 피해량이 ",Research!$Q52,"배 증가합니다.")</f>
@@ -13471,7 +13486,7 @@
         <v>83</v>
       </c>
       <c r="H53" s="78" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="I53" s="78" t="str">
         <f>CONCATENATE("검술의 피해량이 ",Research!$Q53,"배 증가합니다.")</f>
@@ -13524,7 +13539,7 @@
         <v>83</v>
       </c>
       <c r="H54" s="78" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="I54" s="78" t="str">
         <f>CONCATENATE("검술의 피해량이 ",Research!$Q54,"배 증가합니다.")</f>
@@ -13577,7 +13592,7 @@
         <v>83</v>
       </c>
       <c r="H55" s="78" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="I55" s="78" t="str">
         <f>CONCATENATE("검술의 피해량이 ",Research!$Q55,"배 증가합니다.")</f>
@@ -13630,7 +13645,7 @@
         <v>83</v>
       </c>
       <c r="H56" s="78" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="I56" s="78" t="str">
         <f>CONCATENATE("검술의 피해량이 ",Research!$Q56,"배 증가합니다.")</f>
@@ -13683,7 +13698,7 @@
         <v>83</v>
       </c>
       <c r="H57" s="78" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="I57" s="78" t="str">
         <f>CONCATENATE("검술의 피해량이 ",Research!$Q57,"배 증가합니다.")</f>
@@ -13736,7 +13751,7 @@
         <v>83</v>
       </c>
       <c r="H58" s="78" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="I58" s="78" t="str">
         <f>CONCATENATE("검술의 피해량이 ",Research!$Q58,"배 증가합니다.")</f>
@@ -13789,7 +13804,7 @@
         <v>83</v>
       </c>
       <c r="H59" s="78" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="I59" s="78" t="str">
         <f>CONCATENATE("검술의 피해량이 ",Research!$Q59,"배 증가합니다.")</f>
@@ -13842,7 +13857,7 @@
         <v>83</v>
       </c>
       <c r="H60" s="78" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="I60" s="78" t="str">
         <f>CONCATENATE("검술의 피해량이 ",Research!$Q60,"배 증가합니다.")</f>
@@ -13875,7 +13890,7 @@
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="17" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B61" s="111" t="s">
         <v>6</v>
@@ -13932,7 +13947,7 @@
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="18" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B62" s="110" t="s">
         <v>6</v>
@@ -13989,7 +14004,7 @@
     </row>
     <row r="63" spans="1:19">
       <c r="A63" s="17" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B63" s="111" t="s">
         <v>6</v>
@@ -14011,7 +14026,7 @@
         <v>83</v>
       </c>
       <c r="H63" s="73" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="I63" s="73" t="str">
         <f>CONCATENATE("불의 피해량이 ",Research!$Q63,"배 증가합니다.")</f>
@@ -14046,7 +14061,7 @@
     </row>
     <row r="64" spans="1:19">
       <c r="A64" s="18" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B64" s="110" t="s">
         <v>6</v>
@@ -14068,7 +14083,7 @@
         <v>83</v>
       </c>
       <c r="H64" s="78" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="I64" s="78" t="str">
         <f>CONCATENATE("불의 피해량이 ",Research!$Q64,"배 증가합니다.")</f>
@@ -14103,7 +14118,7 @@
     </row>
     <row r="65" spans="1:19">
       <c r="A65" s="17" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B65" s="111" t="s">
         <v>6</v>
@@ -14125,7 +14140,7 @@
         <v>83</v>
       </c>
       <c r="H65" s="73" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="I65" s="73" t="str">
         <f>CONCATENATE("불의 피해량이 ",Research!$Q65,"배 증가합니다.")</f>
@@ -14160,7 +14175,7 @@
     </row>
     <row r="66" spans="1:19">
       <c r="A66" s="18" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B66" s="110" t="s">
         <v>6</v>
@@ -14182,7 +14197,7 @@
         <v>83</v>
       </c>
       <c r="H66" s="78" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="I66" s="78" t="str">
         <f>CONCATENATE("불의 피해량이 ",Research!$Q66,"배 증가합니다.")</f>
@@ -14217,7 +14232,7 @@
     </row>
     <row r="67" spans="1:19">
       <c r="A67" s="17" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B67" s="111" t="s">
         <v>6</v>
@@ -14239,7 +14254,7 @@
         <v>83</v>
       </c>
       <c r="H67" s="73" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="I67" s="73" t="str">
         <f>CONCATENATE("불의 피해량이 ",Research!$Q67,"배 증가합니다.")</f>
@@ -14274,7 +14289,7 @@
     </row>
     <row r="68" spans="1:19">
       <c r="A68" s="18" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B68" s="110" t="s">
         <v>6</v>
@@ -14331,7 +14346,7 @@
     </row>
     <row r="69" spans="1:19">
       <c r="A69" s="17" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B69" s="111" t="s">
         <v>6</v>
@@ -14388,7 +14403,7 @@
     </row>
     <row r="70" spans="1:19">
       <c r="A70" s="18" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B70" s="110" t="s">
         <v>43</v>
@@ -14445,7 +14460,7 @@
     </row>
     <row r="71" spans="1:19">
       <c r="A71" s="17" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B71" s="111" t="s">
         <v>43</v>
@@ -14502,7 +14517,7 @@
     </row>
     <row r="72" spans="1:19">
       <c r="A72" s="18" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B72" s="110" t="s">
         <v>43</v>
@@ -14524,7 +14539,7 @@
         <v>83</v>
       </c>
       <c r="H72" s="78" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="I72" s="78" t="str">
         <f>CONCATENATE("얼음의 피해량이 ",Research!$Q72,"배 증가합니다.")</f>
@@ -14559,7 +14574,7 @@
     </row>
     <row r="73" spans="1:19">
       <c r="A73" s="17" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B73" s="111" t="s">
         <v>43</v>
@@ -14581,7 +14596,7 @@
         <v>83</v>
       </c>
       <c r="H73" s="73" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="I73" s="73" t="str">
         <f>CONCATENATE("얼음의 피해량이 ",Research!$Q73,"배 증가합니다.")</f>
@@ -14616,7 +14631,7 @@
     </row>
     <row r="74" spans="1:19">
       <c r="A74" s="18" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B74" s="110" t="s">
         <v>43</v>
@@ -14638,7 +14653,7 @@
         <v>83</v>
       </c>
       <c r="H74" s="78" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="I74" s="78" t="str">
         <f>CONCATENATE("얼음의 피해량이 ",Research!$Q74,"배 증가합니다.")</f>
@@ -14673,7 +14688,7 @@
     </row>
     <row r="75" spans="1:19">
       <c r="A75" s="17" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B75" s="111" t="s">
         <v>43</v>
@@ -14730,7 +14745,7 @@
     </row>
     <row r="76" spans="1:19">
       <c r="A76" s="18" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B76" s="110" t="s">
         <v>43</v>
@@ -14787,7 +14802,7 @@
     </row>
     <row r="77" spans="1:19" s="11" customFormat="1">
       <c r="A77" s="17" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B77" s="111" t="s">
         <v>43</v>
@@ -14844,7 +14859,7 @@
     </row>
     <row r="78" spans="1:19">
       <c r="A78" s="18" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B78" s="110" t="s">
         <v>43</v>
@@ -14866,7 +14881,7 @@
         <v>83</v>
       </c>
       <c r="H78" s="78" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="I78" s="78" t="str">
         <f>CONCATENATE("얼음의 피해량이 ",Research!$Q78,"배 증가합니다.")</f>
@@ -14901,7 +14916,7 @@
     </row>
     <row r="79" spans="1:19">
       <c r="A79" s="17" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="B79" s="111" t="s">
         <v>9</v>
@@ -14958,7 +14973,7 @@
     </row>
     <row r="80" spans="1:19">
       <c r="A80" s="18" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B80" s="110" t="s">
         <v>9</v>
@@ -15015,7 +15030,7 @@
     </row>
     <row r="81" spans="1:19">
       <c r="A81" s="17" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B81" s="111" t="s">
         <v>9</v>
@@ -15037,7 +15052,7 @@
         <v>83</v>
       </c>
       <c r="H81" s="73" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="I81" s="73" t="str">
         <f>CONCATENATE("바위의 피해량이 ",Research!$Q81,"배 증가합니다.")</f>
@@ -15072,7 +15087,7 @@
     </row>
     <row r="82" spans="1:19">
       <c r="A82" s="18" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B82" s="110" t="s">
         <v>9</v>
@@ -15094,7 +15109,7 @@
         <v>83</v>
       </c>
       <c r="H82" s="78" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="I82" s="78" t="str">
         <f>CONCATENATE("바위의 피해량이 ",Research!$Q82,"배 증가합니다.")</f>
@@ -15129,7 +15144,7 @@
     </row>
     <row r="83" spans="1:19">
       <c r="A83" s="17" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="B83" s="111" t="s">
         <v>9</v>
@@ -15186,7 +15201,7 @@
     </row>
     <row r="84" spans="1:19">
       <c r="A84" s="18" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B84" s="110" t="s">
         <v>9</v>
@@ -15243,7 +15258,7 @@
     </row>
     <row r="85" spans="1:19">
       <c r="A85" s="17" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B85" s="111" t="s">
         <v>9</v>
@@ -15300,7 +15315,7 @@
     </row>
     <row r="86" spans="1:19">
       <c r="A86" s="18" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B86" s="110" t="s">
         <v>9</v>
@@ -15357,7 +15372,7 @@
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="17" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B87" s="111" t="s">
         <v>11</v>
@@ -15414,7 +15429,7 @@
     </row>
     <row r="88" spans="1:19">
       <c r="A88" s="18" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B88" s="110" t="s">
         <v>11</v>
@@ -15471,7 +15486,7 @@
     </row>
     <row r="89" spans="1:19">
       <c r="A89" s="17" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B89" s="111" t="s">
         <v>11</v>
@@ -15528,7 +15543,7 @@
     </row>
     <row r="90" spans="1:19">
       <c r="A90" s="18" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B90" s="110" t="s">
         <v>11</v>
@@ -15585,7 +15600,7 @@
     </row>
     <row r="91" spans="1:19">
       <c r="A91" s="17" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B91" s="111" t="s">
         <v>11</v>
@@ -15642,7 +15657,7 @@
     </row>
     <row r="92" spans="1:19">
       <c r="A92" s="18" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="B92" s="110" t="s">
         <v>11</v>
@@ -15664,7 +15679,7 @@
         <v>83</v>
       </c>
       <c r="H92" s="78" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="I92" s="78" t="str">
         <f>CONCATENATE("전기의 피해량이 ",Research!$Q92,"배 증가합니다.")</f>
@@ -15699,7 +15714,7 @@
     </row>
     <row r="93" spans="1:19">
       <c r="A93" s="17" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B93" s="111" t="s">
         <v>11</v>
@@ -15721,7 +15736,7 @@
         <v>83</v>
       </c>
       <c r="H93" s="73" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="I93" s="73" t="str">
         <f>CONCATENATE("전기의 피해량이 ",Research!$Q93,"배 증가합니다.")</f>
@@ -15756,7 +15771,7 @@
     </row>
     <row r="94" spans="1:19">
       <c r="A94" s="18" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B94" s="110" t="s">
         <v>41</v>
@@ -15813,7 +15828,7 @@
     </row>
     <row r="95" spans="1:19">
       <c r="A95" s="17" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="B95" s="111" t="s">
         <v>41</v>
@@ -15870,7 +15885,7 @@
     </row>
     <row r="96" spans="1:19">
       <c r="A96" s="18" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="B96" s="110" t="s">
         <v>41</v>
@@ -15892,7 +15907,7 @@
         <v>83</v>
       </c>
       <c r="H96" s="78" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="I96" s="78" t="str">
         <f>CONCATENATE("물의 피해량이 ",Research!$Q96,"배 증가합니다.")</f>
@@ -15927,7 +15942,7 @@
     </row>
     <row r="97" spans="1:19">
       <c r="A97" s="17" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="B97" s="111" t="s">
         <v>41</v>
@@ -15949,7 +15964,7 @@
         <v>83</v>
       </c>
       <c r="H97" s="73" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="I97" s="73" t="str">
         <f>CONCATENATE("물의 피해량이 ",Research!$Q97,"배 증가합니다.")</f>
@@ -15984,7 +15999,7 @@
     </row>
     <row r="98" spans="1:19">
       <c r="A98" s="18" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B98" s="110" t="s">
         <v>18</v>
@@ -16006,7 +16021,7 @@
         <v>83</v>
       </c>
       <c r="H98" s="78" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="I98" s="78" t="str">
         <f>CONCATENATE("대지의 피해량이 ",Research!$Q98,"배 증가합니다.")</f>
@@ -16028,7 +16043,7 @@
         <v>20</v>
       </c>
       <c r="O98" s="78" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="P98" s="78" t="s">
         <v>13</v>
@@ -16041,7 +16056,7 @@
     </row>
     <row r="99" spans="1:19">
       <c r="A99" s="91" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B99" s="112" t="s">
         <v>18</v>
@@ -16063,7 +16078,7 @@
         <v>83</v>
       </c>
       <c r="H99" s="82" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="I99" s="82" t="str">
         <f>CONCATENATE("대지의 피해량이 ",Research!$Q99,"배 증가합니다.")</f>
@@ -16085,7 +16100,7 @@
         <v>20</v>
       </c>
       <c r="O99" s="82" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="P99" s="82" t="s">
         <v>13</v>
@@ -16790,13 +16805,13 @@
   <sheetData>
     <row r="1" spans="1:18" ht="17.25" thickBot="1">
       <c r="A1" s="69" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C1" s="69" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D1" s="69" t="s">
         <v>38</v>
@@ -16805,19 +16820,19 @@
         <v>82</v>
       </c>
       <c r="F1" s="70" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="G1" s="70" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H1" s="71" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="I1" s="72" t="s">
         <v>37</v>
       </c>
       <c r="J1" s="69" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="K1" s="69" t="s">
         <v>40</v>
@@ -16826,7 +16841,7 @@
         <v>39</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>80</v>
@@ -16876,7 +16891,7 @@
         <v>110</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -17041,7 +17056,7 @@
         <v>210</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="N5" s="11">
         <f t="shared" si="1"/>
@@ -17097,7 +17112,7 @@
         <v>30</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="N6" s="11">
         <f t="shared" si="1"/>
@@ -17153,7 +17168,7 @@
         <v>210</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="N7" s="11">
         <f t="shared" si="1"/>
@@ -17459,7 +17474,7 @@
     </row>
     <row r="20" spans="5:12">
       <c r="E20" s="11" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
@@ -17551,7 +17566,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -17618,7 +17633,7 @@
         <v>414</v>
       </c>
       <c r="C2" s="126" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="D2" s="49" t="s">
         <v>413</v>
@@ -17627,7 +17642,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="49" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="G2" s="125">
         <v>0</v>
@@ -17635,9 +17650,7 @@
       <c r="H2" s="49" t="s">
         <v>416</v>
       </c>
-      <c r="I2" s="49" t="s">
-        <v>175</v>
-      </c>
+      <c r="I2" s="49"/>
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
       <c r="L2" s="52"/>
@@ -17648,10 +17661,10 @@
         <v>417</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>94</v>
+        <v>798</v>
       </c>
       <c r="C3" s="127" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="D3" s="49" t="s">
         <v>413</v>
@@ -17660,7 +17673,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="128" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="G3" s="129">
         <v>0</v>
@@ -17668,9 +17681,7 @@
       <c r="H3" s="55" t="s">
         <v>418</v>
       </c>
-      <c r="I3" s="49" t="s">
-        <v>175</v>
-      </c>
+      <c r="I3" s="49"/>
       <c r="J3" s="57" t="s">
         <v>386</v>
       </c>
@@ -17683,10 +17694,10 @@
         <v>385</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C4" s="127" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="D4" s="49" t="s">
         <v>398</v>
@@ -17695,7 +17706,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="128" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G4" s="130">
         <v>0</v>
@@ -17703,11 +17714,9 @@
       <c r="H4" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="I4" s="49" t="s">
-        <v>175</v>
-      </c>
+      <c r="I4" s="49"/>
       <c r="J4" s="59" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="K4" s="57" t="s">
         <v>386</v>
@@ -17720,10 +17729,10 @@
         <v>149</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C5" s="127" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="D5" s="49" t="s">
         <v>398</v>
@@ -17732,7 +17741,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="128" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G5" s="130">
         <v>0</v>
@@ -17740,9 +17749,7 @@
       <c r="H5" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="I5" s="49" t="s">
-        <v>742</v>
-      </c>
+      <c r="I5" s="49"/>
       <c r="J5" s="57" t="s">
         <v>386</v>
       </c>
@@ -17755,10 +17762,10 @@
         <v>102</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>94</v>
+        <v>798</v>
       </c>
       <c r="C6" s="127" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="D6" s="49" t="s">
         <v>413</v>
@@ -17767,7 +17774,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="128" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G6" s="130">
         <v>0</v>
@@ -17775,14 +17782,12 @@
       <c r="H6" s="55" t="s">
         <v>418</v>
       </c>
-      <c r="I6" s="49" t="s">
-        <v>742</v>
-      </c>
+      <c r="I6" s="49"/>
       <c r="J6" s="57" t="s">
         <v>386</v>
       </c>
       <c r="K6" s="59" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="L6" s="56"/>
       <c r="M6" s="56"/>
@@ -17792,10 +17797,10 @@
         <v>103</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C7" s="127" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="D7" s="49" t="s">
         <v>415</v>
@@ -17804,7 +17809,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="128" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G7" s="130">
         <v>0</v>
@@ -17812,11 +17817,9 @@
       <c r="H7" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="I7" s="49" t="s">
-        <v>742</v>
-      </c>
+      <c r="I7" s="49"/>
       <c r="J7" s="59" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="K7" s="56"/>
       <c r="L7" s="56"/>
@@ -17827,10 +17830,10 @@
         <v>150</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C8" s="127" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="D8" s="49" t="s">
         <v>398</v>
@@ -17839,7 +17842,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="128" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G8" s="130">
         <v>0</v>
@@ -17847,11 +17850,9 @@
       <c r="H8" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="I8" s="49" t="s">
-        <v>742</v>
-      </c>
+      <c r="I8" s="49"/>
       <c r="J8" s="59" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="K8" s="56"/>
       <c r="L8" s="56"/>
@@ -17862,10 +17863,10 @@
         <v>151</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>94</v>
+        <v>798</v>
       </c>
       <c r="C9" s="127" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="D9" s="49" t="s">
         <v>419</v>
@@ -17874,7 +17875,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="128" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G9" s="130">
         <v>0</v>
@@ -17882,14 +17883,12 @@
       <c r="H9" s="55" t="s">
         <v>418</v>
       </c>
-      <c r="I9" s="49" t="s">
-        <v>742</v>
-      </c>
+      <c r="I9" s="49"/>
       <c r="J9" s="57" t="s">
         <v>386</v>
       </c>
       <c r="K9" s="56" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="L9" s="56"/>
       <c r="M9" s="56"/>
@@ -17899,10 +17898,10 @@
         <v>104</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C10" s="127" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="D10" s="49" t="s">
         <v>413</v>
@@ -17911,7 +17910,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="128" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G10" s="130">
         <v>0</v>
@@ -17919,14 +17918,12 @@
       <c r="H10" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="I10" s="49" t="s">
-        <v>742</v>
-      </c>
+      <c r="I10" s="49"/>
       <c r="J10" s="59" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="K10" s="56" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="L10" s="56"/>
       <c r="M10" s="56"/>
@@ -17936,10 +17933,10 @@
         <v>105</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C11" s="127" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="D11" s="49" t="s">
         <v>413</v>
@@ -17948,7 +17945,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="128" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G11" s="131">
         <v>0</v>
@@ -17956,11 +17953,9 @@
       <c r="H11" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="I11" s="49" t="s">
-        <v>742</v>
-      </c>
+      <c r="I11" s="49"/>
       <c r="J11" s="56" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="K11" s="56"/>
       <c r="L11" s="56"/>
@@ -17968,13 +17963,13 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="49" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>94</v>
+        <v>798</v>
       </c>
       <c r="C12" s="127" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="D12" s="49" t="s">
         <v>174</v>
@@ -17983,7 +17978,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="128" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G12" s="129">
         <v>0</v>
@@ -17991,27 +17986,25 @@
       <c r="H12" s="55" t="s">
         <v>418</v>
       </c>
-      <c r="I12" s="49" t="s">
-        <v>742</v>
-      </c>
+      <c r="I12" s="49"/>
       <c r="J12" s="57" t="s">
         <v>386</v>
       </c>
       <c r="K12" s="56" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="L12" s="56"/>
       <c r="M12" s="56"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="55" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C13" s="127" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="D13" s="49" t="s">
         <v>174</v>
@@ -18020,7 +18013,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="128" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G13" s="130">
         <v>0</v>
@@ -18028,14 +18021,12 @@
       <c r="H13" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="I13" s="49" t="s">
-        <v>742</v>
-      </c>
+      <c r="I13" s="49"/>
       <c r="J13" s="59" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="L13" s="56"/>
       <c r="M13" s="56"/>
@@ -18046,13 +18037,13 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="49" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C14" s="127" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="D14" s="49" t="s">
         <v>174</v>
@@ -18061,7 +18052,7 @@
         <v>15</v>
       </c>
       <c r="F14" s="128" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G14" s="130">
         <v>0</v>
@@ -18069,11 +18060,9 @@
       <c r="H14" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="I14" s="49" t="s">
-        <v>742</v>
-      </c>
+      <c r="I14" s="49"/>
       <c r="J14" s="56" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="K14" s="56"/>
       <c r="L14" s="56"/>
@@ -18081,13 +18070,13 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="55" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>94</v>
+        <v>798</v>
       </c>
       <c r="C15" s="127" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="D15" s="49" t="s">
         <v>174</v>
@@ -18096,7 +18085,7 @@
         <v>30</v>
       </c>
       <c r="F15" s="128" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G15" s="132">
         <v>0</v>
@@ -18104,36 +18093,34 @@
       <c r="H15" s="55" t="s">
         <v>418</v>
       </c>
-      <c r="I15" s="49" t="s">
-        <v>742</v>
-      </c>
+      <c r="I15" s="49"/>
       <c r="J15" s="57" t="s">
         <v>386</v>
       </c>
       <c r="K15" s="56" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="L15" s="56"/>
       <c r="M15" s="56"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="49" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C16" s="127" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="D16" s="92" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="E16" s="50">
         <v>30</v>
       </c>
       <c r="F16" s="128" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G16" s="133">
         <v>0</v>
@@ -18141,36 +18128,34 @@
       <c r="H16" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="I16" s="49" t="s">
-        <v>742</v>
-      </c>
+      <c r="I16" s="49"/>
       <c r="J16" s="59" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="K16" s="56" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="L16" s="93"/>
       <c r="M16" s="93"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="55" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C17" s="127" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="D17" s="92" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="E17" s="50">
         <v>30</v>
       </c>
       <c r="F17" s="128" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G17" s="133">
         <v>0</v>
@@ -18178,11 +18163,9 @@
       <c r="H17" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="I17" s="49" t="s">
-        <v>742</v>
-      </c>
+      <c r="I17" s="49"/>
       <c r="J17" s="56" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="K17" s="93"/>
       <c r="L17" s="93"/>
@@ -18190,22 +18173,22 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="49" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>94</v>
+        <v>798</v>
       </c>
       <c r="C18" s="127" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="D18" s="92" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="E18" s="50">
         <v>60</v>
       </c>
       <c r="F18" s="128" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G18" s="133">
         <v>0</v>
@@ -18213,9 +18196,7 @@
       <c r="H18" s="55" t="s">
         <v>418</v>
       </c>
-      <c r="I18" s="49" t="s">
-        <v>742</v>
-      </c>
+      <c r="I18" s="49"/>
       <c r="J18" s="57" t="s">
         <v>386</v>
       </c>
@@ -18227,13 +18208,13 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="55" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C19" s="127" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="D19" s="92" t="s">
         <v>174</v>
@@ -18242,7 +18223,7 @@
         <v>60</v>
       </c>
       <c r="F19" s="128" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G19" s="133">
         <v>0</v>
@@ -18250,11 +18231,9 @@
       <c r="H19" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="I19" s="49" t="s">
-        <v>742</v>
-      </c>
+      <c r="I19" s="49"/>
       <c r="J19" s="59" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="K19" s="78" t="s">
         <v>10</v>
@@ -18264,13 +18243,13 @@
     </row>
     <row r="20" spans="1:13" ht="17.25" thickBot="1">
       <c r="A20" s="49" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C20" s="127" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="D20" s="92" t="s">
         <v>174</v>
@@ -18279,7 +18258,7 @@
         <v>60</v>
       </c>
       <c r="F20" s="128" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G20" s="134">
         <v>0</v>
@@ -18287,9 +18266,7 @@
       <c r="H20" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="I20" s="49" t="s">
-        <v>742</v>
-      </c>
+      <c r="I20" s="49"/>
       <c r="J20" s="78" t="s">
         <v>10</v>
       </c>
@@ -18299,13 +18276,13 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="55" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>94</v>
+        <v>798</v>
       </c>
       <c r="C21" s="127" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="D21" s="92" t="s">
         <v>174</v>
@@ -18314,7 +18291,7 @@
         <v>105</v>
       </c>
       <c r="F21" s="128" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G21" s="135">
         <v>0</v>
@@ -18322,9 +18299,7 @@
       <c r="H21" s="55" t="s">
         <v>418</v>
       </c>
-      <c r="I21" s="49" t="s">
-        <v>742</v>
-      </c>
+      <c r="I21" s="49"/>
       <c r="J21" s="57" t="s">
         <v>386</v>
       </c>
@@ -18336,13 +18311,13 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="49" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C22" s="127" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="D22" s="92" t="s">
         <v>174</v>
@@ -18351,7 +18326,7 @@
         <v>105</v>
       </c>
       <c r="F22" s="128" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G22" s="133">
         <v>0</v>
@@ -18359,11 +18334,9 @@
       <c r="H22" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="I22" s="49" t="s">
-        <v>742</v>
-      </c>
+      <c r="I22" s="49"/>
       <c r="J22" s="59" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="K22" s="73" t="s">
         <v>7</v>
@@ -18373,13 +18346,13 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="55" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C23" s="127" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="D23" s="92" t="s">
         <v>174</v>
@@ -18388,7 +18361,7 @@
         <v>105</v>
       </c>
       <c r="F23" s="128" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G23" s="132">
         <v>0</v>
@@ -18396,9 +18369,7 @@
       <c r="H23" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="I23" s="49" t="s">
-        <v>742</v>
-      </c>
+      <c r="I23" s="49"/>
       <c r="J23" s="73" t="s">
         <v>7</v>
       </c>
@@ -18408,22 +18379,22 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="49" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>94</v>
+        <v>798</v>
       </c>
       <c r="C24" s="127" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="D24" s="92" t="s">
         <v>174</v>
       </c>
       <c r="E24" s="55" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="F24" s="128" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G24" s="132">
         <v>0</v>
@@ -18431,9 +18402,7 @@
       <c r="H24" s="55" t="s">
         <v>418</v>
       </c>
-      <c r="I24" s="49" t="s">
-        <v>742</v>
-      </c>
+      <c r="I24" s="49"/>
       <c r="J24" s="57" t="s">
         <v>386</v>
       </c>
@@ -18445,22 +18414,22 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="55" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C25" s="127" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="D25" s="92" t="s">
         <v>174</v>
       </c>
       <c r="E25" s="55" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="F25" s="128" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G25" s="132">
         <v>0</v>
@@ -18468,11 +18437,9 @@
       <c r="H25" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="I25" s="49" t="s">
-        <v>742</v>
-      </c>
+      <c r="I25" s="49"/>
       <c r="J25" s="59" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="K25" s="78" t="s">
         <v>18</v>
@@ -18482,22 +18449,22 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="49" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C26" s="127" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="D26" s="92" t="s">
         <v>174</v>
       </c>
       <c r="E26" s="55" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="F26" s="128" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G26" s="132">
         <v>0</v>
@@ -18505,9 +18472,7 @@
       <c r="H26" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="I26" s="49" t="s">
-        <v>742</v>
-      </c>
+      <c r="I26" s="49"/>
       <c r="J26" s="78" t="s">
         <v>18</v>
       </c>
@@ -18517,13 +18482,13 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="55" t="s">
+        <v>762</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>798</v>
+      </c>
+      <c r="C27" s="126" t="s">
         <v>771</v>
-      </c>
-      <c r="B27" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="126" t="s">
-        <v>780</v>
       </c>
       <c r="D27" s="92" t="s">
         <v>174</v>
@@ -18532,7 +18497,7 @@
         <v>210</v>
       </c>
       <c r="F27" s="128" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G27" s="132">
         <v>0</v>
@@ -18540,9 +18505,7 @@
       <c r="H27" s="55" t="s">
         <v>418</v>
       </c>
-      <c r="I27" s="49" t="s">
-        <v>742</v>
-      </c>
+      <c r="I27" s="49"/>
       <c r="J27" s="57" t="s">
         <v>386</v>
       </c>
@@ -18554,13 +18517,13 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="49" t="s">
+        <v>763</v>
+      </c>
+      <c r="B28" s="55" t="s">
+        <v>799</v>
+      </c>
+      <c r="C28" s="126" t="s">
         <v>772</v>
-      </c>
-      <c r="B28" s="55" t="s">
-        <v>801</v>
-      </c>
-      <c r="C28" s="126" t="s">
-        <v>781</v>
       </c>
       <c r="D28" s="92" t="s">
         <v>174</v>
@@ -18569,7 +18532,7 @@
         <v>210</v>
       </c>
       <c r="F28" s="128" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G28" s="132">
         <v>0</v>
@@ -18577,11 +18540,9 @@
       <c r="H28" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="I28" s="49" t="s">
-        <v>742</v>
-      </c>
+      <c r="I28" s="49"/>
       <c r="J28" s="59" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="K28" s="73" t="s">
         <v>19</v>
@@ -18591,13 +18552,13 @@
     </row>
     <row r="29" spans="1:13" ht="17.25" thickBot="1">
       <c r="A29" s="55" t="s">
+        <v>764</v>
+      </c>
+      <c r="B29" s="55" t="s">
+        <v>800</v>
+      </c>
+      <c r="C29" s="126" t="s">
         <v>773</v>
-      </c>
-      <c r="B29" s="55" t="s">
-        <v>802</v>
-      </c>
-      <c r="C29" s="126" t="s">
-        <v>782</v>
       </c>
       <c r="D29" s="92" t="s">
         <v>174</v>
@@ -18606,7 +18567,7 @@
         <v>210</v>
       </c>
       <c r="F29" s="128" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G29" s="134">
         <v>0</v>
@@ -18614,9 +18575,7 @@
       <c r="H29" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="I29" s="49" t="s">
-        <v>742</v>
-      </c>
+      <c r="I29" s="49"/>
       <c r="J29" s="73" t="s">
         <v>19</v>
       </c>
@@ -18626,13 +18585,13 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="49" t="s">
+        <v>765</v>
+      </c>
+      <c r="B30" s="55" t="s">
+        <v>798</v>
+      </c>
+      <c r="C30" s="126" t="s">
         <v>774</v>
-      </c>
-      <c r="B30" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="126" t="s">
-        <v>783</v>
       </c>
       <c r="D30" s="92" t="s">
         <v>174</v>
@@ -18641,7 +18600,7 @@
         <v>260</v>
       </c>
       <c r="F30" s="128" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G30" s="137">
         <v>0</v>
@@ -18649,9 +18608,7 @@
       <c r="H30" s="55" t="s">
         <v>418</v>
       </c>
-      <c r="I30" s="49" t="s">
-        <v>742</v>
-      </c>
+      <c r="I30" s="49"/>
       <c r="J30" s="57" t="s">
         <v>386</v>
       </c>
@@ -18663,13 +18620,13 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="55" t="s">
+        <v>766</v>
+      </c>
+      <c r="B31" s="55" t="s">
+        <v>799</v>
+      </c>
+      <c r="C31" s="126" t="s">
         <v>775</v>
-      </c>
-      <c r="B31" s="55" t="s">
-        <v>801</v>
-      </c>
-      <c r="C31" s="126" t="s">
-        <v>784</v>
       </c>
       <c r="D31" s="92" t="s">
         <v>174</v>
@@ -18678,7 +18635,7 @@
         <v>260</v>
       </c>
       <c r="F31" s="128" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G31" s="132">
         <v>0</v>
@@ -18686,11 +18643,9 @@
       <c r="H31" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="I31" s="49" t="s">
-        <v>742</v>
-      </c>
+      <c r="I31" s="49"/>
       <c r="J31" s="59" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="K31" s="78" t="s">
         <v>290</v>
@@ -18700,13 +18655,13 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="49" t="s">
+        <v>767</v>
+      </c>
+      <c r="B32" s="55" t="s">
+        <v>801</v>
+      </c>
+      <c r="C32" s="126" t="s">
         <v>776</v>
-      </c>
-      <c r="B32" s="55" t="s">
-        <v>802</v>
-      </c>
-      <c r="C32" s="126" t="s">
-        <v>785</v>
       </c>
       <c r="D32" s="92" t="s">
         <v>174</v>
@@ -18715,7 +18670,7 @@
         <v>260</v>
       </c>
       <c r="F32" s="128" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G32" s="132">
         <v>0</v>
@@ -18723,9 +18678,7 @@
       <c r="H32" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="I32" s="49" t="s">
-        <v>742</v>
-      </c>
+      <c r="I32" s="49"/>
       <c r="J32" s="78" t="s">
         <v>290</v>
       </c>
@@ -18735,13 +18688,13 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="55" t="s">
+        <v>768</v>
+      </c>
+      <c r="B33" s="55" t="s">
+        <v>798</v>
+      </c>
+      <c r="C33" s="126" t="s">
         <v>777</v>
-      </c>
-      <c r="B33" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="126" t="s">
-        <v>786</v>
       </c>
       <c r="D33" s="92" t="s">
         <v>174</v>
@@ -18750,7 +18703,7 @@
         <v>325</v>
       </c>
       <c r="F33" s="128" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G33" s="132">
         <v>0</v>
@@ -18758,9 +18711,7 @@
       <c r="H33" s="55" t="s">
         <v>418</v>
       </c>
-      <c r="I33" s="49" t="s">
-        <v>742</v>
-      </c>
+      <c r="I33" s="49"/>
       <c r="J33" s="57" t="s">
         <v>386</v>
       </c>
@@ -18772,13 +18723,13 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="49" t="s">
+        <v>769</v>
+      </c>
+      <c r="B34" s="55" t="s">
+        <v>799</v>
+      </c>
+      <c r="C34" s="126" t="s">
         <v>778</v>
-      </c>
-      <c r="B34" s="55" t="s">
-        <v>801</v>
-      </c>
-      <c r="C34" s="126" t="s">
-        <v>787</v>
       </c>
       <c r="D34" s="92" t="s">
         <v>174</v>
@@ -18787,7 +18738,7 @@
         <v>325</v>
       </c>
       <c r="F34" s="128" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G34" s="132">
         <v>0</v>
@@ -18795,11 +18746,9 @@
       <c r="H34" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="I34" s="49" t="s">
-        <v>742</v>
-      </c>
+      <c r="I34" s="49"/>
       <c r="J34" s="59" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="K34" s="82" t="s">
         <v>17</v>
@@ -18809,13 +18758,13 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="55" t="s">
+        <v>770</v>
+      </c>
+      <c r="B35" s="55" t="s">
+        <v>800</v>
+      </c>
+      <c r="C35" s="126" t="s">
         <v>779</v>
-      </c>
-      <c r="B35" s="55" t="s">
-        <v>802</v>
-      </c>
-      <c r="C35" s="126" t="s">
-        <v>788</v>
       </c>
       <c r="D35" s="92" t="s">
         <v>174</v>
@@ -18824,7 +18773,7 @@
         <v>325</v>
       </c>
       <c r="F35" s="128" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G35" s="133">
         <v>0</v>
@@ -18832,9 +18781,7 @@
       <c r="H35" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="I35" s="49" t="s">
-        <v>742</v>
-      </c>
+      <c r="I35" s="49"/>
       <c r="J35" s="82" t="s">
         <v>17</v>
       </c>
@@ -20594,7 +20541,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -20615,45 +20562,45 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="C1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>653</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>654</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" s="11" t="s">
         <v>655</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>678</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>656</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>657</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>658</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>659</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>660</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>661</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="109" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>669</v>
+        <v>797</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -20671,10 +20618,10 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="109" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="B3" s="109" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="C3">
         <v>15</v>
@@ -20686,16 +20633,16 @@
         <v>25</v>
       </c>
       <c r="F3" s="109" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="G3" s="109" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" s="109" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="J3" s="109" t="s">
         <v>21</v>
@@ -20705,11 +20652,9 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="109" t="s">
-        <v>681</v>
-      </c>
+      <c r="A4" s="109"/>
       <c r="B4" s="109" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -20722,10 +20667,10 @@
         <v>50</v>
       </c>
       <c r="F4" s="109" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="G4" s="109" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -20736,10 +20681,10 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="109" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="B5" s="109" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -20751,19 +20696,19 @@
         <v>50</v>
       </c>
       <c r="F5" s="109" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="G5" s="109" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="H5">
         <v>100</v>
       </c>
       <c r="I5" s="109" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="J5" s="109" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="K5">
         <v>10</v>
@@ -20771,10 +20716,10 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="109" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="B6" s="109" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -20787,19 +20732,19 @@
         <v>50</v>
       </c>
       <c r="F6" s="109" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="G6" s="109" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" s="109" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="J6" s="109" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="K6">
         <v>10</v>
@@ -20807,10 +20752,10 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="109" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="B7" s="109" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -20822,19 +20767,19 @@
         <v>50</v>
       </c>
       <c r="F7" s="109" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="G7" s="109" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
       <c r="I7" s="109" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="J7" s="109" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -20842,10 +20787,10 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="109" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="B8" s="109" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="C8" s="108">
         <v>10</v>
@@ -20860,7 +20805,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="109" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="H8" s="108">
         <v>3</v>
@@ -20869,7 +20814,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="109" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -20877,10 +20822,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="109" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="B9" s="109" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="C9" s="108">
         <v>10</v>
@@ -20895,7 +20840,7 @@
         <v>20</v>
       </c>
       <c r="G9" s="109" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="H9" s="108">
         <v>3</v>
@@ -20904,7 +20849,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="109" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="K9" s="108">
         <v>1</v>
@@ -20912,10 +20857,10 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="109" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="B10" s="109" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="C10" s="108">
         <v>10</v>
@@ -20930,7 +20875,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="109" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="H10" s="108">
         <v>3</v>
@@ -20939,7 +20884,7 @@
         <v>8</v>
       </c>
       <c r="J10" s="109" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="K10" s="108">
         <v>1</v>
@@ -20947,10 +20892,10 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="109" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="B11" s="109" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="C11" s="108">
         <v>10</v>
@@ -20965,7 +20910,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="109" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="H11" s="108">
         <v>3</v>
@@ -20974,7 +20919,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="109" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="K11" s="108">
         <v>1</v>
@@ -20982,10 +20927,10 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="109" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="B12" s="109" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="C12" s="108">
         <v>10</v>
@@ -21000,7 +20945,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="109" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="H12" s="108">
         <v>3</v>
@@ -21009,7 +20954,7 @@
         <v>7</v>
       </c>
       <c r="J12" s="109" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="K12" s="108">
         <v>1</v>
@@ -21017,10 +20962,10 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="109" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="B13" s="109" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="C13" s="108">
         <v>10</v>
@@ -21035,7 +20980,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="109" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="H13" s="108">
         <v>3</v>
@@ -21044,7 +20989,7 @@
         <v>18</v>
       </c>
       <c r="J13" s="109" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="K13" s="108">
         <v>1</v>
@@ -21052,10 +20997,10 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="109" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="B14" s="109" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="C14" s="108">
         <v>10</v>
@@ -21070,7 +21015,7 @@
         <v>19</v>
       </c>
       <c r="G14" s="109" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="H14" s="108">
         <v>3</v>
@@ -21079,7 +21024,7 @@
         <v>19</v>
       </c>
       <c r="J14" s="109" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="K14" s="108">
         <v>1</v>
@@ -21087,10 +21032,10 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="109" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="B15" s="109" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="C15" s="108">
         <v>10</v>
@@ -21105,7 +21050,7 @@
         <v>229</v>
       </c>
       <c r="G15" s="109" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="H15" s="108">
         <v>3</v>
@@ -21114,7 +21059,7 @@
         <v>229</v>
       </c>
       <c r="J15" s="109" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="K15" s="108">
         <v>1</v>
@@ -21122,10 +21067,10 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="109" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="B16" s="109" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="C16" s="108">
         <v>10</v>
@@ -21140,7 +21085,7 @@
         <v>17</v>
       </c>
       <c r="G16" s="109" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="H16" s="108">
         <v>3</v>
@@ -21149,7 +21094,7 @@
         <v>17</v>
       </c>
       <c r="J16" s="109" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="K16" s="108">
         <v>1</v>
